--- a/public/templates/template-checksheet-hydrant.xlsx
+++ b/public/templates/template-checksheet-hydrant.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t xml:space="preserve">Check Sheet Perawatan Hydrant Indoor </t>
+    <t>Check Sheet Perawatan Hydrant</t>
   </si>
   <si>
     <t>YEAR : 2023</t>
@@ -298,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,12 +374,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,76 +866,76 @@
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1692,7 +1686,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="A4" sqref="A4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
